--- a/assets/excel/employee.xlsx
+++ b/assets/excel/employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -53,52 +53,148 @@
     <t>Added On</t>
   </si>
   <si>
-    <t>sfsfsd</t>
-  </si>
-  <si>
-    <t>sdfsdfsfsfds</t>
+    <t>REG897</t>
+  </si>
+  <si>
+    <t>MOHAN</t>
+  </si>
+  <si>
+    <t>SANJAY</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
+    <t>DEVELOPER</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>DIR1234</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>Sidheshwar</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>Ranchui</t>
+  </si>
+  <si>
+    <t>Banking1234</t>
+  </si>
+  <si>
+    <t>Maning</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Sidhreshwar</t>
   </si>
   <si>
     <t>2022-04-07</t>
   </si>
   <si>
-    <t>sfsdf</t>
-  </si>
-  <si>
-    <t>sdfsfsdf</t>
-  </si>
-  <si>
-    <t>sdfsdfds</t>
-  </si>
-  <si>
-    <t>dsffsdfsdf</t>
-  </si>
-  <si>
-    <t>FIN987</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>dsfsfsd</t>
-  </si>
-  <si>
-    <t>sfdsf</t>
-  </si>
-  <si>
-    <t>sfsfsdf</t>
-  </si>
-  <si>
-    <t>2022-04-15</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>dfsdfsd</t>
-  </si>
-  <si>
-    <t>sdfdsfsdf</t>
+    <t>45222`</t>
+  </si>
+  <si>
+    <t>rajesh</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>dgfghf</t>
+  </si>
+  <si>
+    <t>fhgfhg</t>
+  </si>
+  <si>
+    <t>gfhfdhdfg</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>fdhfdg</t>
+  </si>
+  <si>
+    <t>fdghdfgh</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>fghdfhdf</t>
+  </si>
+  <si>
+    <t>fghfdghdfgh</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>fdgdfgdfg</t>
+  </si>
+  <si>
+    <t>dfgd</t>
+  </si>
+  <si>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>dfgdfg</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>ranchui</t>
+  </si>
+  <si>
+    <t>gfh</t>
+  </si>
+  <si>
+    <t>ghdgf</t>
+  </si>
+  <si>
+    <t>hfdghdfgh</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>fgdh</t>
+  </si>
+  <si>
+    <t>fghdfghfdg</t>
+  </si>
+  <si>
+    <t>fdghdgfh</t>
   </si>
 </sst>
 </file>
@@ -437,7 +533,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,78 +581,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <v>23234</v>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>12458965</v>
+      </c>
+      <c r="J2">
+        <v>5222</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>4582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3">
+        <v>4582</v>
+      </c>
+      <c r="G3">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>458695</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>4582</v>
+      </c>
+      <c r="C4">
+        <v>5655858</v>
+      </c>
+      <c r="D4">
+        <v>5515</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4">
+        <v>4525</v>
+      </c>
+      <c r="G4">
+        <v>552</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I4">
+        <v>48748</v>
+      </c>
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>124586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>52111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>45000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>45258</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>54248</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>12345</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>1234567895</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
